--- a/SuRGE_Sharepoint/data/CIN/CH4_049_Stockwell/dataSheets/surgeData049.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_049_Stockwell/dataSheets/surgeData049.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_049_Stockwell/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_049_Stockwell/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{697A51F0-FCEE-4AEB-B72C-F151CB3BDD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2695721-E9FC-4605-A6EA-F1C16C95DD3A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{697A51F0-FCEE-4AEB-B72C-F151CB3BDD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC107EB3-1231-40F6-9AC2-FFC83C897018}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="570" windowWidth="19440" windowHeight="14880" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1329,9 +1329,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1369,7 +1369,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1475,7 +1475,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1617,7 +1617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1629,77 +1629,77 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB18" sqref="BB18"/>
+      <selection pane="topRight" activeCell="BT12" sqref="BT12:BV12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.26953125" customWidth="1"/>
-    <col min="30" max="30" width="10.26953125" customWidth="1"/>
-    <col min="31" max="31" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.21875" customWidth="1"/>
+    <col min="31" max="31" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.26953125" customWidth="1"/>
-    <col min="51" max="51" width="8.26953125" customWidth="1"/>
-    <col min="52" max="52" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.26953125" customWidth="1"/>
-    <col min="65" max="65" width="14.81640625" customWidth="1"/>
-    <col min="66" max="66" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.21875" customWidth="1"/>
+    <col min="51" max="51" width="8.21875" customWidth="1"/>
+    <col min="52" max="52" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.21875" customWidth="1"/>
+    <col min="65" max="65" width="14.77734375" customWidth="1"/>
+    <col min="66" max="66" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>84</v>
       </c>
@@ -2127,15 +2127,6 @@
       <c r="BE3">
         <v>0.9</v>
       </c>
-      <c r="BT3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>91</v>
-      </c>
       <c r="BW3">
         <v>2.0718999999999999</v>
       </c>
@@ -2149,7 +2140,7 @@
         <v>0.56346064814814811</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>84</v>
       </c>
@@ -2250,7 +2241,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>84</v>
       </c>
@@ -2351,7 +2342,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
@@ -2449,7 +2440,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>84</v>
       </c>
@@ -2547,7 +2538,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
@@ -2651,7 +2642,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>84</v>
       </c>
@@ -2749,7 +2740,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>84</v>
       </c>
@@ -2847,7 +2838,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>84</v>
       </c>
@@ -2945,7 +2936,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>84</v>
       </c>
@@ -3042,8 +3033,17 @@
       <c r="BE12">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BT12" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>84</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>84</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>84</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>84</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>84</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>84</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>84</v>
       </c>
@@ -3569,14 +3569,14 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4359,17 +4359,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>84</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>84</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>84</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>84</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
@@ -4610,14 +4610,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>177</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>178</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>179</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>180</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>181</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>182</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>183</v>
       </c>
@@ -5195,6 +5195,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -5236,20 +5250,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A5BA8C0-CC4B-4F83-81CB-AB1E33E058CA}">
   <ds:schemaRefs>
@@ -5274,15 +5274,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5296,9 +5290,15 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>